--- a/src/main/resources/testdata/SearchOfficesData.xlsx
+++ b/src/main/resources/testdata/SearchOfficesData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\MOMRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\momra-e2e-tests\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7D3D8C-1C5A-4BA3-902A-214E72B4BAA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808288A5-210C-4CCF-8EF0-BDD0EFD7229E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{94703152-38E0-457E-91BC-0D3ABA762227}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -70,6 +70,9 @@
 ValidateOnInlineEditButtonFunctionality,
 ValidateOnSearchFunctionality,
 VerifyEditAndSaveButtonsDisplayed</t>
+  </si>
+  <si>
+    <t>Testing 2</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,15 +489,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="1"/>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>425</v>
+      </c>
+      <c r="J2">
+        <v>525</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/testdata/SearchOfficesData.xlsx
+++ b/src/main/resources/testdata/SearchOfficesData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\momra-e2e-tests\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808288A5-210C-4CCF-8EF0-BDD0EFD7229E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BC938A-4E56-4A60-B625-55232AB0428F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{94703152-38E0-457E-91BC-0D3ABA762227}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -72,7 +72,10 @@
 VerifyEditAndSaveButtonsDisplayed</t>
   </si>
   <si>
-    <t>Testing 2</t>
+    <t>Test Automation Data</t>
+  </si>
+  <si>
+    <t>Test Data</t>
   </si>
 </sst>
 </file>
@@ -441,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78465BEC-7211-4858-A410-EDEFD13FC645}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,17 +502,20 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
+      <c r="F2">
+        <v>1234</v>
+      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2">
-        <v>425</v>
+        <v>100</v>
       </c>
       <c r="J2">
-        <v>525</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
